--- a/Wahrscheinlichkeitsbasierte Strategien des Turniers/Erggebnisse4.xlsx
+++ b/Wahrscheinlichkeitsbasierte Strategien des Turniers/Erggebnisse4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonschweizer/Maturaarbeit/Strategie 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F517B82D-BA21-5F4C-B008-EB0E776E8534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2178B9-FA61-2845-8BB7-7DDE67E56C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -94,6 +95,113 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>359192</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>128283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>359192</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76970</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gerade Verbindung 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85BA4216-3829-2890-3A71-9A1766AF5C53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1770303" y="897980"/>
+          <a:ext cx="0" cy="2642626"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139571</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>126743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590101</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>128282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Gerade Verbindung 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4AB8CB9-4547-FA48-A94A-D35405685109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="845127" y="1473713"/>
+          <a:ext cx="8096186" cy="1539"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:L18"/>
+  <dimension ref="A3:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:L18"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -455,7 +563,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="D9">
@@ -487,7 +595,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="D10">
@@ -519,7 +627,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11">
+      <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="D11">
@@ -551,7 +659,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12">
+      <c r="B12" s="2">
         <v>4</v>
       </c>
       <c r="D12">
@@ -583,7 +691,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13">
+      <c r="B13" s="2">
         <v>5</v>
       </c>
       <c r="D13">
@@ -618,7 +726,7 @@
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>6</v>
       </c>
       <c r="D14">
@@ -650,7 +758,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15">
+      <c r="B15" s="2">
         <v>7</v>
       </c>
       <c r="D15">
@@ -685,7 +793,7 @@
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>8</v>
       </c>
       <c r="D16">
@@ -720,7 +828,7 @@
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>9</v>
       </c>
       <c r="D17">
@@ -752,7 +860,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B18">
+      <c r="B18" s="2">
         <v>10</v>
       </c>
       <c r="D18">
@@ -783,11 +891,27 @@
         <v>0.51</v>
       </c>
     </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="D9:L18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>